--- a/biology/Botanique/Dompte-venin_noir/Dompte-venin_noir.xlsx
+++ b/biology/Botanique/Dompte-venin_noir/Dompte-venin_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincetoxicum nigrum
 Le dompte-venin noir (Vincetoxicum nigrum) est une espèce de plante à fleurs de la famille des Apocynacées (autrefois Asclépiadacées) poussant en région méditerranéenne, en principe sur sol calcaire. D'allure similaire au dompte-venin officinal, il s'en distingue par ses fleurs, d'une couleur pourprée tirant sur le noir.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Plante herbacée de petite taille, légèrement velue, à tiges souvent volubiles. Feuilles simples opposées, à court pétiole, à limbe plus ou moins lancéolé et terminé en pointe.
-Appareil reproducteur
-Fleurs groupées en cymes à l'aisselle des feuilles supérieures. Calice à cinq petites dents pointues. Petite corolle (0,5 à 0,8 cm) à cinq pétales étoilés, de couleur pourpre très sombre. Couronne staminale charnue. Les fruits sont des follicules.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée de petite taille, légèrement velue, à tiges souvent volubiles. Feuilles simples opposées, à court pétiole, à limbe plus ou moins lancéolé et terminé en pointe.
 </t>
         </is>
       </c>
@@ -543,12 +558,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs groupées en cymes à l'aisselle des feuilles supérieures. Calice à cinq petites dents pointues. Petite corolle (0,5 à 0,8 cm) à cinq pétales étoilés, de couleur pourpre très sombre. Couronne staminale charnue. Les fruits sont des follicules.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dompte-venin_noir</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dompte-venin_noir</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plante vivace poussant dans les fourrés, sur les terrains caillouteux, au bord des routes, parfois dans les lieux humides (fossés), sur sols calcaires le plus souvent. On la rencontre depuis le Portugal jusqu'à l'Italie, elle est également présente aux Baléares. On la retrouve aussi maintenant en Amérique du Nord où elle est considérée comme espèce envahissante nuisible[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Plante vivace poussant dans les fourrés, sur les terrains caillouteux, au bord des routes, parfois dans les lieux humides (fossés), sur sols calcaires le plus souvent. On la rencontre depuis le Portugal jusqu'à l'Italie, elle est également présente aux Baléares. On la retrouve aussi maintenant en Amérique du Nord où elle est considérée comme espèce envahissante nuisible.
 Floraison : de mai à août
 Pollinisation : entomogame
 Dissémination : barochore</t>
